--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Kcnj15.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H2">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I2">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J2">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.378907333333333</v>
+        <v>2.229346333333333</v>
       </c>
       <c r="N2">
-        <v>7.136722</v>
+        <v>6.688039</v>
       </c>
       <c r="O2">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="P2">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="Q2">
-        <v>8.263734106981332</v>
+        <v>8.133133247230777</v>
       </c>
       <c r="R2">
-        <v>74.373606962832</v>
+        <v>73.19819922507699</v>
       </c>
       <c r="S2">
-        <v>0.09320064028832925</v>
+        <v>0.04400831515870311</v>
       </c>
       <c r="T2">
-        <v>0.09320064028832922</v>
+        <v>0.04400831515870309</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H3">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I3">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J3">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>15.168338</v>
       </c>
       <c r="O3">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="P3">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="Q3">
-        <v>17.56368148805867</v>
+        <v>18.44578270148155</v>
       </c>
       <c r="R3">
-        <v>158.073133392528</v>
+        <v>166.012044313334</v>
       </c>
       <c r="S3">
-        <v>0.198087975643411</v>
+        <v>0.09980997406530261</v>
       </c>
       <c r="T3">
-        <v>0.198087975643411</v>
+        <v>0.09980997406530259</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,13 +667,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H4">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I4">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J4">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.378907333333333</v>
+        <v>2.229346333333333</v>
       </c>
       <c r="N4">
-        <v>7.136722</v>
+        <v>6.688039</v>
       </c>
       <c r="O4">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="P4">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="Q4">
-        <v>7.176708260396887</v>
+        <v>6.725511339401556</v>
       </c>
       <c r="R4">
-        <v>64.59037434357198</v>
+        <v>60.529602054614</v>
       </c>
       <c r="S4">
-        <v>0.0809408672123727</v>
+        <v>0.0363916849301088</v>
       </c>
       <c r="T4">
-        <v>0.0809408672123727</v>
+        <v>0.03639168493010879</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H5">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I5">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J5">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -750,10 +750,10 @@
         <v>15.168338</v>
       </c>
       <c r="O5">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="P5">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="Q5">
         <v>15.25332451244311</v>
@@ -762,10 +762,10 @@
         <v>137.279920611988</v>
       </c>
       <c r="S5">
-        <v>0.1720311414526707</v>
+        <v>0.08253560982664673</v>
       </c>
       <c r="T5">
-        <v>0.1720311414526707</v>
+        <v>0.08253560982664673</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H6">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I6">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J6">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.378907333333333</v>
+        <v>2.229346333333333</v>
       </c>
       <c r="N6">
-        <v>7.136722</v>
+        <v>6.688039</v>
       </c>
       <c r="O6">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="P6">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="Q6">
-        <v>3.882009623301556</v>
+        <v>23.11354027189711</v>
       </c>
       <c r="R6">
-        <v>34.938086609714</v>
+        <v>208.021862447074</v>
       </c>
       <c r="S6">
-        <v>0.0437823601066135</v>
+        <v>0.1250671707690715</v>
       </c>
       <c r="T6">
-        <v>0.0437823601066135</v>
+        <v>0.1250671707690715</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H7">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I7">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J7">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,22 +874,22 @@
         <v>15.168338</v>
       </c>
       <c r="O7">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="P7">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="Q7">
-        <v>8.250795545278445</v>
+        <v>52.42104467703422</v>
       </c>
       <c r="R7">
-        <v>74.25715990750601</v>
+        <v>471.789402093308</v>
       </c>
       <c r="S7">
-        <v>0.0930547156712605</v>
+        <v>0.2836498290349377</v>
       </c>
       <c r="T7">
-        <v>0.0930547156712605</v>
+        <v>0.2836498290349377</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H8">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I8">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J8">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.378907333333333</v>
+        <v>2.229346333333333</v>
       </c>
       <c r="N8">
-        <v>7.136722</v>
+        <v>6.688039</v>
       </c>
       <c r="O8">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="P8">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="Q8">
-        <v>0.30848480845</v>
+        <v>0.1194312848847778</v>
       </c>
       <c r="R8">
-        <v>2.77636327605</v>
+        <v>1.074881563963</v>
       </c>
       <c r="S8">
-        <v>0.003479175551216406</v>
+        <v>0.0006462416715978116</v>
       </c>
       <c r="T8">
-        <v>0.003479175551216406</v>
+        <v>0.0006462416715978115</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H9">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I9">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J9">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>15.168338</v>
       </c>
       <c r="O9">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="P9">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="Q9">
-        <v>0.6556514100499999</v>
+        <v>0.2708677531495555</v>
       </c>
       <c r="R9">
-        <v>5.900862690449999</v>
+        <v>2.437809778346</v>
       </c>
       <c r="S9">
-        <v>0.007394614883722075</v>
+        <v>0.001465663119560249</v>
       </c>
       <c r="T9">
-        <v>0.007394614883722073</v>
+        <v>0.001465663119560249</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H10">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I10">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J10">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.378907333333333</v>
+        <v>2.229346333333333</v>
       </c>
       <c r="N10">
-        <v>7.136722</v>
+        <v>6.688039</v>
       </c>
       <c r="O10">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="P10">
-        <v>0.3199597759432165</v>
+        <v>0.3059994343984824</v>
       </c>
       <c r="Q10">
-        <v>8.738637756842</v>
+        <v>18.459837020953</v>
       </c>
       <c r="R10">
-        <v>78.64773981157799</v>
+        <v>166.138533188577</v>
       </c>
       <c r="S10">
-        <v>0.09855673278468462</v>
+        <v>0.09988602186900128</v>
       </c>
       <c r="T10">
-        <v>0.09855673278468462</v>
+        <v>0.09988602186900124</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H11">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I11">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J11">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>15.168338</v>
       </c>
       <c r="O11">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="P11">
-        <v>0.6800402240567835</v>
+        <v>0.6940005656015176</v>
       </c>
       <c r="Q11">
-        <v>18.573038315818</v>
+        <v>41.866539258926</v>
       </c>
       <c r="R11">
-        <v>167.157344842362</v>
+        <v>376.798853330334</v>
       </c>
       <c r="S11">
-        <v>0.2094717764057193</v>
+        <v>0.2265394895550703</v>
       </c>
       <c r="T11">
-        <v>0.2094717764057193</v>
+        <v>0.2265394895550703</v>
       </c>
     </row>
   </sheetData>
